--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il7-Il7r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il7-Il7r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Il7</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6404143333333333</v>
+        <v>0.4161346666666667</v>
       </c>
       <c r="H2">
-        <v>1.921243</v>
+        <v>1.248404</v>
       </c>
       <c r="I2">
-        <v>0.6110578901736126</v>
+        <v>0.4872818821417071</v>
       </c>
       <c r="J2">
-        <v>0.6110578901736126</v>
+        <v>0.487281882141707</v>
       </c>
       <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.115185</v>
+        <v>23.18360966666667</v>
       </c>
       <c r="N2">
-        <v>0.345555</v>
+        <v>69.55082900000001</v>
       </c>
       <c r="O2">
-        <v>0.0009796682944168203</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="P2">
-        <v>0.0009796682944168203</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="Q2">
-        <v>0.073766124985</v>
+        <v>9.647503680768446</v>
       </c>
       <c r="R2">
-        <v>0.6638951248649999</v>
+        <v>86.82753312691601</v>
       </c>
       <c r="S2">
-        <v>0.0005986340410563237</v>
+        <v>0.2591884220004297</v>
       </c>
       <c r="T2">
-        <v>0.0005986340410563237</v>
+        <v>0.2591884220004297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6404143333333333</v>
+        <v>0.4161346666666667</v>
       </c>
       <c r="H3">
-        <v>1.921243</v>
+        <v>1.248404</v>
       </c>
       <c r="I3">
-        <v>0.6110578901736126</v>
+        <v>0.4872818821417071</v>
       </c>
       <c r="J3">
-        <v>0.6110578901736126</v>
+        <v>0.487281882141707</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,60 +620,60 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>75.29271333333334</v>
+        <v>20.40226066666667</v>
       </c>
       <c r="N3">
-        <v>225.87814</v>
+        <v>61.206782</v>
       </c>
       <c r="O3">
-        <v>0.640377514895874</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="P3">
-        <v>0.640377514895874</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="Q3">
-        <v>48.21853281422445</v>
+        <v>8.490087941769779</v>
       </c>
       <c r="R3">
-        <v>433.9667953280199</v>
+        <v>76.41079147592801</v>
       </c>
       <c r="S3">
-        <v>0.3913077331668939</v>
+        <v>0.2280934601412774</v>
       </c>
       <c r="T3">
-        <v>0.3913077331668939</v>
+        <v>0.2280934601412774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6404143333333333</v>
+        <v>0.298935</v>
       </c>
       <c r="H4">
-        <v>1.921243</v>
+        <v>0.8968050000000001</v>
       </c>
       <c r="I4">
-        <v>0.6110578901736126</v>
+        <v>0.3500443993403526</v>
       </c>
       <c r="J4">
-        <v>0.6110578901736126</v>
+        <v>0.3500443993403526</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.16761233333333</v>
+        <v>23.18360966666667</v>
       </c>
       <c r="N4">
-        <v>126.502837</v>
+        <v>69.55082900000001</v>
       </c>
       <c r="O4">
-        <v>0.3586428168097091</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="P4">
-        <v>0.3586428168097091</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="Q4">
-        <v>27.00474334071011</v>
+        <v>6.930392355705001</v>
       </c>
       <c r="R4">
-        <v>243.042690066391</v>
+        <v>62.37353120134501</v>
       </c>
       <c r="S4">
-        <v>0.2191515229656622</v>
+        <v>0.1861909067834574</v>
       </c>
       <c r="T4">
-        <v>0.2191515229656623</v>
+        <v>0.1861909067834574</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,72 +732,72 @@
         <v>0.8968050000000001</v>
       </c>
       <c r="I5">
-        <v>0.2852318895616778</v>
+        <v>0.3500443993403526</v>
       </c>
       <c r="J5">
-        <v>0.2852318895616779</v>
+        <v>0.3500443993403526</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.115185</v>
+        <v>20.40226066666667</v>
       </c>
       <c r="N5">
-        <v>0.345555</v>
+        <v>61.206782</v>
       </c>
       <c r="O5">
-        <v>0.0009796682944168203</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="P5">
-        <v>0.0009796682944168203</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="Q5">
-        <v>0.034432827975</v>
+        <v>6.09894979239</v>
       </c>
       <c r="R5">
-        <v>0.3098954517750001</v>
+        <v>54.89054813151001</v>
       </c>
       <c r="S5">
-        <v>0.0002794326387601758</v>
+        <v>0.1638534925568953</v>
       </c>
       <c r="T5">
-        <v>0.0002794326387601758</v>
+        <v>0.1638534925568953</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.298935</v>
+        <v>0.06745866666666667</v>
       </c>
       <c r="H6">
-        <v>0.8968050000000001</v>
+        <v>0.202376</v>
       </c>
       <c r="I6">
-        <v>0.2852318895616778</v>
+        <v>0.07899218376447857</v>
       </c>
       <c r="J6">
-        <v>0.2852318895616779</v>
+        <v>0.07899218376447857</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,60 +806,60 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.29271333333334</v>
+        <v>23.18360966666667</v>
       </c>
       <c r="N6">
-        <v>225.87814</v>
+        <v>69.55082900000001</v>
       </c>
       <c r="O6">
-        <v>0.640377514895874</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="P6">
-        <v>0.640377514895874</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="Q6">
-        <v>22.5076272603</v>
+        <v>1.563935396633778</v>
       </c>
       <c r="R6">
-        <v>202.5686453427</v>
+        <v>14.075418569704</v>
       </c>
       <c r="S6">
-        <v>0.1826560886065616</v>
+        <v>0.04201645948808155</v>
       </c>
       <c r="T6">
-        <v>0.1826560886065617</v>
+        <v>0.04201645948808155</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.298935</v>
+        <v>0.06745866666666667</v>
       </c>
       <c r="H7">
-        <v>0.8968050000000001</v>
+        <v>0.202376</v>
       </c>
       <c r="I7">
-        <v>0.2852318895616778</v>
+        <v>0.07899218376447857</v>
       </c>
       <c r="J7">
-        <v>0.2852318895616779</v>
+        <v>0.07899218376447857</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,42 +868,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.16761233333333</v>
+        <v>20.40226066666667</v>
       </c>
       <c r="N7">
-        <v>126.502837</v>
+        <v>61.206782</v>
       </c>
       <c r="O7">
-        <v>0.3586428168097091</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="P7">
-        <v>0.3586428168097091</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="Q7">
-        <v>12.605375192865</v>
+        <v>1.376309301559111</v>
       </c>
       <c r="R7">
-        <v>113.448376735785</v>
+        <v>12.386783714032</v>
       </c>
       <c r="S7">
-        <v>0.102296368316356</v>
+        <v>0.03697572427639703</v>
       </c>
       <c r="T7">
-        <v>0.102296368316356</v>
+        <v>0.03697572427639703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -912,60 +912,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1086926666666667</v>
+        <v>0.07146333333333334</v>
       </c>
       <c r="H8">
-        <v>0.326078</v>
+        <v>0.21439</v>
       </c>
       <c r="I8">
-        <v>0.1037102202647095</v>
+        <v>0.08368153475346168</v>
       </c>
       <c r="J8">
-        <v>0.1037102202647095</v>
+        <v>0.08368153475346167</v>
       </c>
       <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.115185</v>
+        <v>23.18360966666667</v>
       </c>
       <c r="N8">
-        <v>0.345555</v>
+        <v>69.55082900000001</v>
       </c>
       <c r="O8">
-        <v>0.0009796682944168203</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="P8">
-        <v>0.0009796682944168203</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="Q8">
-        <v>0.01251976481</v>
+        <v>1.656778025478889</v>
       </c>
       <c r="R8">
-        <v>0.11267788329</v>
+        <v>14.91100222931</v>
       </c>
       <c r="S8">
-        <v>0.0001016016146003207</v>
+        <v>0.04451075596735682</v>
       </c>
       <c r="T8">
-        <v>0.0001016016146003207</v>
+        <v>0.04451075596735681</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1086926666666667</v>
+        <v>0.07146333333333334</v>
       </c>
       <c r="H9">
-        <v>0.326078</v>
+        <v>0.21439</v>
       </c>
       <c r="I9">
-        <v>0.1037102202647095</v>
+        <v>0.08368153475346168</v>
       </c>
       <c r="J9">
-        <v>0.1037102202647095</v>
+        <v>0.08368153475346167</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,90 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>75.29271333333334</v>
+        <v>20.40226066666667</v>
       </c>
       <c r="N9">
-        <v>225.87814</v>
+        <v>61.206782</v>
       </c>
       <c r="O9">
-        <v>0.640377514895874</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="P9">
-        <v>0.640377514895874</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="Q9">
-        <v>8.18376579276889</v>
+        <v>1.458013554775556</v>
       </c>
       <c r="R9">
-        <v>73.65389213492</v>
+        <v>13.12212199298</v>
       </c>
       <c r="S9">
-        <v>0.06641369312241836</v>
+        <v>0.03917077878610487</v>
       </c>
       <c r="T9">
-        <v>0.06641369312241838</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.1086926666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.326078</v>
-      </c>
-      <c r="I10">
-        <v>0.1037102202647095</v>
-      </c>
-      <c r="J10">
-        <v>0.1037102202647095</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>42.16761233333333</v>
-      </c>
-      <c r="N10">
-        <v>126.502837</v>
-      </c>
-      <c r="O10">
-        <v>0.3586428168097091</v>
-      </c>
-      <c r="P10">
-        <v>0.3586428168097091</v>
-      </c>
-      <c r="Q10">
-        <v>4.583310231476221</v>
-      </c>
-      <c r="R10">
-        <v>41.249792083286</v>
-      </c>
-      <c r="S10">
-        <v>0.03719492552769078</v>
-      </c>
-      <c r="T10">
-        <v>0.03719492552769078</v>
+        <v>0.03917077878610487</v>
       </c>
     </row>
   </sheetData>
